--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1216402.665810735</v>
+        <v>1213373.391508092</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,52 +750,52 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,76 +814,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>15.10494271950743</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,67 +978,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15.10494271950743</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.10494271950743</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13.30443354734214</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.10494271950743</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.30443354734214</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15.10494271950743</v>
-      </c>
-      <c r="S6" t="n">
-        <v>15.10494271950743</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,20 +1057,20 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.10494271950743</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.96138362637336</v>
+        <v>11.96138362637331</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>15.10494271950743</v>
       </c>
       <c r="R7" t="n">
-        <v>1.343049920968781</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>15.10494271950743</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.343049920968837</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>21.45987517072708</v>
+        <v>146.9311922907016</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.9838314936295</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>138.2613113589521</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>116.6889117148677</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3956966967179</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>297.8805173918454</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4637130858826</v>
+        <v>410.4637130858827</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9171431796867</v>
+        <v>289.9171431796868</v>
       </c>
       <c r="I11" t="n">
-        <v>23.91940026165553</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.75080040465785</v>
+        <v>10.56954794310573</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9130201250792</v>
+        <v>201.9130201250793</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9585309534962</v>
+        <v>250.9585309534963</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7544108376913</v>
       </c>
       <c r="H12" t="n">
-        <v>87.23012788213903</v>
+        <v>87.230127882139</v>
       </c>
       <c r="I12" t="n">
-        <v>10.37990344155048</v>
+        <v>10.3799034415504</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.5916566802667</v>
+        <v>123.5916566802666</v>
       </c>
       <c r="T12" t="n">
         <v>189.7288132862592</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>44.22423583932508</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8203595888617</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9283894650226</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.51456509170535</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.1886153249955</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6711231399957</v>
+        <v>218.6711231400034</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2006319145128</v>
+        <v>286.2006319145129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.67842139643618</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.9604756260746</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>36.86080948088071</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>79.41314830963961</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>139.1886739667899</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>143.2091541404085</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.82538261619124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>149.1095818503215</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.45752097953178</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>13.79222725775205</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>23.1099832571722</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>174.8916146167346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428308</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2162996298067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629291</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>160.1597912951062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,19 +4331,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4352,28 +4352,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="Y2" t="n">
         <v>20.55868221764227</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="T2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="U2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="V2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="W2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.856703976333826</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.856703976333826</v>
       </c>
       <c r="L3" t="n">
+        <v>6.856703976333826</v>
+      </c>
+      <c r="M3" t="n">
         <v>7.082327113962777</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T3" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4507,31 +4507,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="5">
@@ -4565,31 +4565,31 @@
         <v>1.208395417560595</v>
       </c>
       <c r="J5" t="n">
-        <v>1.208395417560595</v>
+        <v>5.998309131539598</v>
       </c>
       <c r="K5" t="n">
-        <v>16.16228870987295</v>
+        <v>20.95220242385196</v>
       </c>
       <c r="L5" t="n">
-        <v>30.51198429340502</v>
+        <v>35.90609571616432</v>
       </c>
       <c r="M5" t="n">
-        <v>45.46587758571738</v>
+        <v>49.16454649146068</v>
       </c>
       <c r="N5" t="n">
-        <v>45.46587758571738</v>
+        <v>49.16454649146068</v>
       </c>
       <c r="O5" t="n">
-        <v>45.46587758571738</v>
+        <v>49.16454649146068</v>
       </c>
       <c r="P5" t="n">
-        <v>60.41977087802974</v>
+        <v>49.16454649146068</v>
       </c>
       <c r="Q5" t="n">
         <v>60.41977087802974</v>
       </c>
       <c r="R5" t="n">
-        <v>45.16225297953738</v>
+        <v>60.41977087802974</v>
       </c>
       <c r="S5" t="n">
         <v>45.16225297953738</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.90473508104502</v>
+        <v>31.72343121454531</v>
       </c>
       <c r="C6" t="n">
-        <v>29.90473508104502</v>
+        <v>31.72343121454531</v>
       </c>
       <c r="D6" t="n">
-        <v>29.90473508104502</v>
+        <v>16.46591331605295</v>
       </c>
       <c r="E6" t="n">
-        <v>29.90473508104502</v>
+        <v>1.208395417560595</v>
       </c>
       <c r="F6" t="n">
-        <v>29.90473508104502</v>
+        <v>1.208395417560595</v>
       </c>
       <c r="G6" t="n">
-        <v>14.64721718255266</v>
+        <v>1.208395417560595</v>
       </c>
       <c r="H6" t="n">
-        <v>14.64721718255266</v>
+        <v>1.208395417560595</v>
       </c>
       <c r="I6" t="n">
         <v>1.208395417560595</v>
@@ -4647,13 +4647,13 @@
         <v>1.208395417560595</v>
       </c>
       <c r="K6" t="n">
-        <v>16.16228870987295</v>
+        <v>15.55809100109266</v>
       </c>
       <c r="L6" t="n">
-        <v>16.16228870987295</v>
+        <v>15.55809100109266</v>
       </c>
       <c r="M6" t="n">
-        <v>16.16228870987295</v>
+        <v>30.51198429340502</v>
       </c>
       <c r="N6" t="n">
         <v>30.51198429340502</v>
@@ -4662,34 +4662,34 @@
         <v>45.46587758571738</v>
       </c>
       <c r="P6" t="n">
-        <v>60.41977087802974</v>
+        <v>45.46587758571738</v>
       </c>
       <c r="Q6" t="n">
         <v>60.41977087802974</v>
       </c>
       <c r="R6" t="n">
-        <v>45.16225297953738</v>
+        <v>60.41977087802974</v>
       </c>
       <c r="S6" t="n">
-        <v>29.90473508104502</v>
+        <v>60.41977087802974</v>
       </c>
       <c r="T6" t="n">
-        <v>29.90473508104502</v>
+        <v>46.98094911303767</v>
       </c>
       <c r="U6" t="n">
-        <v>29.90473508104502</v>
+        <v>46.98094911303767</v>
       </c>
       <c r="V6" t="n">
-        <v>29.90473508104502</v>
+        <v>46.98094911303767</v>
       </c>
       <c r="W6" t="n">
-        <v>29.90473508104502</v>
+        <v>46.98094911303767</v>
       </c>
       <c r="X6" t="n">
-        <v>29.90473508104502</v>
+        <v>31.72343121454531</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.90473508104502</v>
+        <v>31.72343121454531</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.54811899925837</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="C7" t="n">
-        <v>28.54811899925837</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="D7" t="n">
-        <v>13.29060110076601</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="E7" t="n">
-        <v>13.29060110076601</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="F7" t="n">
-        <v>13.29060110076601</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="G7" t="n">
-        <v>13.29060110076601</v>
+        <v>28.54811899925831</v>
       </c>
       <c r="H7" t="n">
-        <v>13.29060110076601</v>
+        <v>13.29060110076596</v>
       </c>
       <c r="I7" t="n">
-        <v>13.29060110076601</v>
+        <v>13.29060110076596</v>
       </c>
       <c r="J7" t="n">
-        <v>13.29060110076601</v>
+        <v>13.29060110076596</v>
       </c>
       <c r="K7" t="n">
         <v>1.208395417560595</v>
       </c>
       <c r="L7" t="n">
-        <v>7.628868129207147</v>
+        <v>16.16228870987295</v>
       </c>
       <c r="M7" t="n">
-        <v>22.58276142151951</v>
+        <v>22.58276142151945</v>
       </c>
       <c r="N7" t="n">
-        <v>37.53665471383187</v>
+        <v>37.53665471383181</v>
       </c>
       <c r="O7" t="n">
-        <v>52.49054800614422</v>
+        <v>52.49054800614417</v>
       </c>
       <c r="P7" t="n">
         <v>60.41977087802974</v>
@@ -4747,28 +4747,28 @@
         <v>45.16225297953738</v>
       </c>
       <c r="R7" t="n">
-        <v>43.80563689775073</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="S7" t="n">
-        <v>43.80563689775073</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="T7" t="n">
-        <v>28.54811899925837</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="U7" t="n">
-        <v>28.54811899925837</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="V7" t="n">
-        <v>28.54811899925837</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="W7" t="n">
-        <v>28.54811899925837</v>
+        <v>45.16225297953738</v>
       </c>
       <c r="X7" t="n">
-        <v>28.54811899925837</v>
+        <v>29.90473508104502</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.54811899925837</v>
+        <v>28.54811899925831</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.7826784871775</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="C8" t="n">
-        <v>170.3628934706927</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="D8" t="n">
-        <v>170.3628934706927</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="E8" t="n">
-        <v>170.3628934706927</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="F8" t="n">
-        <v>163.4173927214893</v>
+        <v>163.4173927214891</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678495</v>
@@ -4808,46 +4808,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201471</v>
+        <v>549.202463503662</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201471</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201471</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201471</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="X8" t="n">
-        <v>549.2024635036623</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.7826784871775</v>
+        <v>170.3628934706925</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>212.0253236268545</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>65.49076565373943</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>533.499507267843</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>393.8416170062752</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4218319897904</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.67250990818523</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="C10" t="n">
-        <v>38.67250990818523</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="D10" t="n">
-        <v>38.67250990818523</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E10" t="n">
-        <v>38.67250990818523</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
         <v>106.7151088594234</v>
@@ -4972,40 +4972,40 @@
         <v>295.5529562639638</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242519</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O10" t="n">
-        <v>634.372383960802</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846275</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846275</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846275</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846275</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="V10" t="n">
-        <v>557.3057129681426</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="W10" t="n">
-        <v>417.5120799411549</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="X10" t="n">
-        <v>228.0922949246701</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.67250990818523</v>
+        <v>628.8579103938517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1879.438830799395</v>
+        <v>1581.910962918663</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.549419292478</v>
+        <v>1581.910962918663</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.283720685728</v>
+        <v>1581.910962918664</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.283720685728</v>
+        <v>1196.12271032042</v>
       </c>
       <c r="F11" t="n">
-        <v>809.2978158961201</v>
+        <v>785.1368055308124</v>
       </c>
       <c r="G11" t="n">
-        <v>394.6880046982589</v>
+        <v>370.5269943329505</v>
       </c>
       <c r="H11" t="n">
-        <v>101.8424055268582</v>
+        <v>77.68139516154969</v>
       </c>
       <c r="I11" t="n">
-        <v>77.68139516154957</v>
+        <v>77.68139516154969</v>
       </c>
       <c r="J11" t="n">
         <v>305.0450378358628</v>
       </c>
       <c r="K11" t="n">
-        <v>696.5427185064123</v>
+        <v>696.5427185064136</v>
       </c>
       <c r="L11" t="n">
-        <v>1219.131971829169</v>
+        <v>1219.131971829171</v>
       </c>
       <c r="M11" t="n">
-        <v>1832.282645763991</v>
+        <v>1832.282645763994</v>
       </c>
       <c r="N11" t="n">
-        <v>2459.968547011206</v>
+        <v>2459.96854701121</v>
       </c>
       <c r="O11" t="n">
-        <v>3039.339283234882</v>
+        <v>3039.339283234886</v>
       </c>
       <c r="P11" t="n">
-        <v>3499.317801527116</v>
+        <v>3499.317801527121</v>
       </c>
       <c r="Q11" t="n">
-        <v>3796.569765892488</v>
+        <v>3796.569765892493</v>
       </c>
       <c r="R11" t="n">
-        <v>3884.069758077479</v>
+        <v>3884.069758077484</v>
       </c>
       <c r="S11" t="n">
-        <v>3784.32147484045</v>
+        <v>3873.393447023842</v>
       </c>
       <c r="T11" t="n">
-        <v>3580.368929259562</v>
+        <v>3669.440901442954</v>
       </c>
       <c r="U11" t="n">
-        <v>3326.87546364997</v>
+        <v>3415.947435833362</v>
       </c>
       <c r="V11" t="n">
-        <v>2995.8125763064</v>
+        <v>3084.884548489791</v>
       </c>
       <c r="W11" t="n">
-        <v>2643.043921036286</v>
+        <v>2732.115893219677</v>
       </c>
       <c r="X11" t="n">
-        <v>2269.578162775206</v>
+        <v>2358.650134958597</v>
       </c>
       <c r="Y11" t="n">
-        <v>1879.438830799395</v>
+        <v>1968.510802982785</v>
       </c>
     </row>
     <row r="12">
@@ -5112,37 +5112,37 @@
         <v>176.2773863975996</v>
       </c>
       <c r="H12" t="n">
-        <v>88.16614611261066</v>
+        <v>88.16614611261069</v>
       </c>
       <c r="I12" t="n">
-        <v>77.68139516154957</v>
+        <v>77.68139516154969</v>
       </c>
       <c r="J12" t="n">
-        <v>77.68139516154957</v>
+        <v>194.2797761844932</v>
       </c>
       <c r="K12" t="n">
-        <v>355.1214245715726</v>
+        <v>471.7198055945166</v>
       </c>
       <c r="L12" t="n">
-        <v>774.4963234946924</v>
+        <v>891.094704517637</v>
       </c>
       <c r="M12" t="n">
-        <v>1008.563529258275</v>
+        <v>1399.842299097108</v>
       </c>
       <c r="N12" t="n">
-        <v>1545.184803756298</v>
+        <v>1545.184803756296</v>
       </c>
       <c r="O12" t="n">
-        <v>2013.868637247705</v>
+        <v>2013.868637247704</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.695667277933</v>
+        <v>2370.695667277932</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.305890726344</v>
+        <v>2559.305890726343</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.305890726344</v>
+        <v>2559.305890726343</v>
       </c>
       <c r="S12" t="n">
         <v>2434.465833473549</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.5944887439427</v>
+        <v>853.288042456512</v>
       </c>
       <c r="C13" t="n">
-        <v>225.5944887439427</v>
+        <v>684.3518595286051</v>
       </c>
       <c r="D13" t="n">
-        <v>225.5944887439427</v>
+        <v>684.3518595286051</v>
       </c>
       <c r="E13" t="n">
-        <v>77.68139516154957</v>
+        <v>536.438765946212</v>
       </c>
       <c r="F13" t="n">
-        <v>77.68139516154957</v>
+        <v>389.5488184483016</v>
       </c>
       <c r="G13" t="n">
-        <v>77.68139516154957</v>
+        <v>222.0535057322796</v>
       </c>
       <c r="H13" t="n">
-        <v>77.68139516154957</v>
+        <v>77.68139516154969</v>
       </c>
       <c r="I13" t="n">
-        <v>77.68139516154957</v>
+        <v>77.68139516154969</v>
       </c>
       <c r="J13" t="n">
-        <v>137.183996379446</v>
+        <v>137.1839963794463</v>
       </c>
       <c r="K13" t="n">
-        <v>364.8018853708686</v>
+        <v>364.8018853708689</v>
       </c>
       <c r="L13" t="n">
-        <v>711.600851786485</v>
+        <v>711.6008517864856</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.640860163156</v>
+        <v>1087.640860163157</v>
       </c>
       <c r="N13" t="n">
-        <v>1460.174094053229</v>
+        <v>1460.17409405323</v>
       </c>
       <c r="O13" t="n">
-        <v>1788.252536287375</v>
+        <v>1788.252536287376</v>
       </c>
       <c r="P13" t="n">
-        <v>2045.459638692085</v>
+        <v>2045.459638692086</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.101424152729</v>
+        <v>2140.10142415273</v>
       </c>
       <c r="R13" t="n">
-        <v>2098.167520019693</v>
+        <v>2140.10142415273</v>
       </c>
       <c r="S13" t="n">
-        <v>1910.098211610607</v>
+        <v>1952.032115743644</v>
       </c>
       <c r="T13" t="n">
-        <v>1689.218289246975</v>
+        <v>1731.152193380004</v>
       </c>
       <c r="U13" t="n">
-        <v>1400.126741858577</v>
+        <v>1442.060645991607</v>
       </c>
       <c r="V13" t="n">
-        <v>1145.44225365269</v>
+        <v>1187.37615778572</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0250836157297</v>
+        <v>897.9589877487595</v>
       </c>
       <c r="X13" t="n">
-        <v>628.0355327177124</v>
+        <v>897.9589877487595</v>
       </c>
       <c r="Y13" t="n">
-        <v>407.2429535741824</v>
+        <v>897.9589877487595</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,16 +5294,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452622</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718139</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536368</v>
+        <v>803.2707707770317</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257291</v>
+        <v>634.3345878491248</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133934</v>
+        <v>484.217948436789</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310004</v>
+        <v>484.2179484367889</v>
       </c>
       <c r="F16" t="n">
-        <v>261.01276233309</v>
+        <v>484.217948436789</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.0218491516684</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.3100179938667</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235163</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579361</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438497</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583876</v>
+        <v>984.9192356072714</v>
       </c>
     </row>
     <row r="17">
@@ -5498,58 +5498,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206038</v>
+        <v>985.7836617409689</v>
       </c>
       <c r="C19" t="n">
-        <v>620.823046892697</v>
+        <v>816.847478813062</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803613</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979683</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000581</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729351</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692391</v>
+        <v>1616.214256612756</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794373</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508434</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,13 +5777,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637304</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444888</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684175</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356188</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232832</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408902</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.81129684298</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.40683423463</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028743</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991782</v>
+        <v>1688.043910473549</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093765</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093765</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,22 +6008,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6072,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733343</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454275</v>
+        <v>855.1271669926554</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>705.0105275803196</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>410.2074865000162</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>243.0113872148961</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>101.2995560570944</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471042</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035741</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474265</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474265</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,49 +6455,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.4916164683282</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>754.5554335404213</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>754.5554335404213</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>606.6423399580282</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>459.7523924601178</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>292.5562931749978</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>150.8444620171959</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683282</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1600804794584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>117.1600804794584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630044</v>
       </c>
     </row>
     <row r="35">
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>658.9255961109957</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1061.366640084766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>840.5740609412354</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7157,43 +7157,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400727</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270457</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703124</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,10 +7682,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7737,13 +7737,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>220.4249025169917</v>
       </c>
       <c r="M2" t="n">
         <v>212.2231445822437</v>
@@ -7991,10 +7991,10 @@
         <v>211.167778269899</v>
       </c>
       <c r="O2" t="n">
-        <v>213.252896592586</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>217.8634090628659</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>128.7966855680297</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9234925718064</v>
+        <v>123.2753489893162</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>118.6260055667107</v>
       </c>
       <c r="O3" t="n">
-        <v>131.5496644292654</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>126.4659658995391</v>
       </c>
       <c r="Q3" t="n">
         <v>137.2421710355686</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>164.258318491287</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>210.0345540301718</v>
+        <v>210.0345540301716</v>
       </c>
       <c r="L5" t="n">
-        <v>219.0475547625501</v>
+        <v>219.6578554784896</v>
       </c>
       <c r="M5" t="n">
-        <v>210.7201405390327</v>
+        <v>209.0075723400264</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1200437257665</v>
+        <v>194.1200437257663</v>
       </c>
       <c r="O5" t="n">
-        <v>196.7720135498844</v>
+        <v>196.7720135498842</v>
       </c>
       <c r="P5" t="n">
-        <v>217.8947996200314</v>
+        <v>202.7898569005238</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.9460771381179</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>116.8390554304606</v>
+        <v>116.8390554304605</v>
       </c>
       <c r="K6" t="n">
-        <v>135.8572309021947</v>
+        <v>135.246930186255</v>
       </c>
       <c r="L6" t="n">
-        <v>115.5759076082766</v>
+        <v>115.5759076082765</v>
       </c>
       <c r="M6" t="n">
-        <v>115.3192407222771</v>
+        <v>130.4241834417844</v>
       </c>
       <c r="N6" t="n">
-        <v>118.3118531010701</v>
+        <v>103.8172110975022</v>
       </c>
       <c r="O6" t="n">
-        <v>132.5216461096614</v>
+        <v>132.5216461096612</v>
       </c>
       <c r="P6" t="n">
-        <v>128.8705485702176</v>
+        <v>113.76560585071</v>
       </c>
       <c r="Q6" t="n">
-        <v>126.4727254226102</v>
+        <v>141.5776681421176</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,13 +8377,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>128.1791727146659</v>
+        <v>136.7987894628131</v>
       </c>
       <c r="M7" t="n">
-        <v>140.1228464101374</v>
+        <v>131.50322966199</v>
       </c>
       <c r="N7" t="n">
-        <v>129.2133052346355</v>
+        <v>129.2133052346354</v>
       </c>
       <c r="O7" t="n">
         <v>141.0207561098499</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899312</v>
+        <v>154.1946371899308</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>67.39237437916204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.91940026165548</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.18125246155215</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>135.6077443426122</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8203595888618</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9283894650225</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.17401858337759</v>
+        <v>90.17401858337766</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.17986828158459</v>
+        <v>79.69443337328998</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856545</v>
+        <v>0.587414922129355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.62417772602008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>111.7546635373317</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>206.7713260796044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.64330621514739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.9753202488355</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>73.85777223953392</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409392893</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>144.59566540674</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>76.60007353871566</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.80831533903375</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>117.1847295890517</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>77.24602870709336</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194075</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.36835372228806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>112.9792378643592</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851165.39400171</v>
+        <v>851165.3940017103</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492229.3272015294</v>
+        <v>492229.3272015292</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>439949.281281678</v>
+        <v>439949.2812816782</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140034</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140034</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140034</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>15571.02903969718</v>
+        <v>15571.02903969743</v>
       </c>
       <c r="D3" t="n">
-        <v>481139.5455259688</v>
+        <v>481139.5455259686</v>
       </c>
       <c r="E3" t="n">
-        <v>760353.1118068517</v>
+        <v>760353.111806853</v>
       </c>
       <c r="F3" t="n">
-        <v>187634.6285340239</v>
+        <v>187634.628534023</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044474</v>
+        <v>1799.076112044317</v>
       </c>
       <c r="K3" t="n">
-        <v>2117.8547573814</v>
+        <v>2117.854757381459</v>
       </c>
       <c r="L3" t="n">
-        <v>43638.11332368822</v>
+        <v>43638.11332368815</v>
       </c>
       <c r="M3" t="n">
-        <v>195249.3035737894</v>
+        <v>195249.3035737898</v>
       </c>
       <c r="N3" t="n">
-        <v>49399.53447022181</v>
+        <v>49399.53447022157</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>406442.870506277</v>
       </c>
       <c r="C4" t="n">
-        <v>402641.4343616514</v>
+        <v>402641.4343616513</v>
       </c>
       <c r="D4" t="n">
-        <v>271884.2225707669</v>
+        <v>271884.222570767</v>
       </c>
       <c r="E4" t="n">
-        <v>8622.767716366034</v>
+        <v>8622.767716365825</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744457</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744391</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744393</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744299</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26473,10 +26473,10 @@
         <v>35618.5722453357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>85278.68004650572</v>
+        <v>85278.68004650583</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14926.06644804137</v>
+        <v>14924.4175533868</v>
       </c>
       <c r="C6" t="n">
-        <v>38794.02627188587</v>
+        <v>38794.0262718857</v>
       </c>
       <c r="D6" t="n">
-        <v>-317384.5065897794</v>
+        <v>-317384.506589779</v>
       </c>
       <c r="E6" t="n">
-        <v>-414305.2782880454</v>
+        <v>-414524.7607073667</v>
       </c>
       <c r="F6" t="n">
-        <v>186803.5450643281</v>
+        <v>186768.8071388934</v>
       </c>
       <c r="G6" t="n">
-        <v>374438.173598352</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983519</v>
+        <v>374403.4356729166</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.1735983519</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="J6" t="n">
-        <v>372639.0974863075</v>
+        <v>372604.359560872</v>
       </c>
       <c r="K6" t="n">
-        <v>372320.3188409707</v>
+        <v>372285.580915535</v>
       </c>
       <c r="L6" t="n">
-        <v>330800.0602746637</v>
+        <v>330765.3223492283</v>
       </c>
       <c r="M6" t="n">
-        <v>179188.8700245626</v>
+        <v>179154.1320991268</v>
       </c>
       <c r="N6" t="n">
-        <v>325038.6391281304</v>
+        <v>325003.9012026949</v>
       </c>
       <c r="O6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729165</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,19 +26738,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>49.20145541236925</v>
+        <v>49.20145541236952</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1203.707326776516</v>
+        <v>1203.707326776517</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>15.10494271950743</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>971.0174395193696</v>
+        <v>971.0174395193711</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.64112645285908e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>14.18019469324393</v>
+        <v>14.1801946932442</v>
       </c>
       <c r="D3" t="n">
-        <v>499.2684855005353</v>
+        <v>499.2684855005351</v>
       </c>
       <c r="E3" t="n">
-        <v>655.2373858636111</v>
+        <v>655.2373858636122</v>
       </c>
       <c r="F3" t="n">
-        <v>164.2681735651577</v>
+        <v>164.268173565157</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>8.228896977795998</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4206444468125</v>
+        <v>172.4206444468124</v>
       </c>
       <c r="E4" t="n">
-        <v>783.4918523530497</v>
+        <v>783.4918523530513</v>
       </c>
       <c r="F4" t="n">
-        <v>201.6908485802783</v>
+        <v>201.690848580277</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711778</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="K4" t="n">
-        <v>8.228896977795998</v>
+        <v>8.228896977796225</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4206444468125</v>
+        <v>172.4206444468122</v>
       </c>
       <c r="M4" t="n">
-        <v>783.4918523530498</v>
+        <v>783.4918523530513</v>
       </c>
       <c r="N4" t="n">
-        <v>201.6908485802783</v>
+        <v>201.690848580277</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.64112645285908e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>8.228896977795998</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4206444468125</v>
+        <v>172.4206444468124</v>
       </c>
       <c r="M4" t="n">
-        <v>783.4918523530497</v>
+        <v>783.4918523530513</v>
       </c>
       <c r="N4" t="n">
-        <v>201.6908485802783</v>
+        <v>201.690848580277</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>376.6774205741812</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.1492359435679</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27433,7 +27433,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>245.2779686995118</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>379.3618929143421</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>131.2117673244399</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>79.92703148097597</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>88.60479815866813</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>163.4079268796217</v>
+        <v>164.2275515320337</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>192.9850552304604</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>219.0603805004824</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7755590926379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>82.01821069278695</v>
       </c>
       <c r="K4" t="n">
-        <v>8.05620490400057</v>
+        <v>8.875829556412572</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>73.99778714139502</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>122.3394478907991</v>
+        <v>137.4443906103064</v>
       </c>
       <c r="S5" t="n">
-        <v>204.512820680881</v>
+        <v>189.4078779613736</v>
       </c>
       <c r="T5" t="n">
         <v>222.2300028462715</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>132.3401228451313</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.5401377358935</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.1327448980992</v>
+        <v>137.2376876176067</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2133536250056</v>
+        <v>111.2133536250055</v>
       </c>
       <c r="I6" t="n">
-        <v>72.4485066155154</v>
+        <v>85.75294016285753</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>78.4821763122159</v>
+        <v>93.58711903172329</v>
       </c>
       <c r="S6" t="n">
-        <v>154.6124909912041</v>
+        <v>169.7174337107116</v>
       </c>
       <c r="T6" t="n">
-        <v>199.7381613596898</v>
+        <v>186.4337278123477</v>
       </c>
       <c r="U6" t="n">
         <v>225.9344196108693</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.6680424839701</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.5105302987049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.9022554224692</v>
       </c>
       <c r="H7" t="n">
-        <v>161.4383360583691</v>
+        <v>146.3333933388617</v>
       </c>
       <c r="I7" t="n">
         <v>152.7823041976826</v>
       </c>
       <c r="J7" t="n">
-        <v>87.08639784221383</v>
+        <v>87.0863978422138</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.62768076491919</v>
+        <v>63.62768076491915</v>
       </c>
       <c r="R7" t="n">
-        <v>171.9609906616174</v>
+        <v>173.3040405825862</v>
       </c>
       <c r="S7" t="n">
         <v>222.4703818070458</v>
       </c>
       <c r="T7" t="n">
-        <v>212.4615535277279</v>
+        <v>227.5664962472354</v>
       </c>
       <c r="U7" t="n">
         <v>286.3141898690733</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6047126695297</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.241603431126</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>391.637958059331</v>
+        <v>266.1666409393564</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>86.17995787214582</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -27989,16 +27989,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310532</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>113.4336718019675</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -28032,7 +28032,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>16.1334578958227</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -28068,16 +28068,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>148.1273016398731</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28248,25 +28248,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.717712183615993e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.86432203008735e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.2217271865009e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1977947956276149</v>
+        <v>0.197794795627616</v>
       </c>
       <c r="H5" t="n">
-        <v>2.025665950721312</v>
+        <v>2.025665950721323</v>
       </c>
       <c r="I5" t="n">
-        <v>7.625483858433632</v>
+        <v>7.625483858433673</v>
       </c>
       <c r="J5" t="n">
-        <v>16.7875860353993</v>
+        <v>16.78758603539939</v>
       </c>
       <c r="K5" t="n">
-        <v>25.16023973431624</v>
+        <v>25.16023973431638</v>
       </c>
       <c r="L5" t="n">
-        <v>31.21350221100487</v>
+        <v>31.21350221100504</v>
       </c>
       <c r="M5" t="n">
-        <v>34.73103540774746</v>
+        <v>34.73103540774765</v>
       </c>
       <c r="N5" t="n">
-        <v>35.29301987082443</v>
+        <v>35.29301987082462</v>
       </c>
       <c r="O5" t="n">
-        <v>33.32619787180233</v>
+        <v>33.32619787180251</v>
       </c>
       <c r="P5" t="n">
-        <v>28.44313885474558</v>
+        <v>28.44313885474574</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.35961273633162</v>
+        <v>21.35961273633173</v>
       </c>
       <c r="R5" t="n">
-        <v>12.42472733084318</v>
+        <v>12.42472733084325</v>
       </c>
       <c r="S5" t="n">
-        <v>4.507248905364279</v>
+        <v>4.507248905364304</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8658467178598848</v>
+        <v>0.8658467178598895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01582358365020919</v>
+        <v>0.01582358365020928</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.105829545603964</v>
+        <v>0.1058295456039646</v>
       </c>
       <c r="H6" t="n">
-        <v>1.022090611490916</v>
+        <v>1.022090611490922</v>
       </c>
       <c r="I6" t="n">
-        <v>3.643692688557535</v>
+        <v>3.643692688557555</v>
       </c>
       <c r="J6" t="n">
-        <v>9.998571236206097</v>
+        <v>9.998571236206152</v>
       </c>
       <c r="K6" t="n">
-        <v>17.08915079167169</v>
+        <v>17.08915079167178</v>
       </c>
       <c r="L6" t="n">
-        <v>22.97847217159755</v>
+        <v>22.97847217159767</v>
       </c>
       <c r="M6" t="n">
-        <v>26.81479319974124</v>
+        <v>26.81479319974138</v>
       </c>
       <c r="N6" t="n">
-        <v>27.52450098583098</v>
+        <v>27.52450098583114</v>
       </c>
       <c r="O6" t="n">
-        <v>25.17954105429051</v>
+        <v>25.17954105429065</v>
       </c>
       <c r="P6" t="n">
-        <v>20.20880156362012</v>
+        <v>20.20880156362023</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.50904866341127</v>
+        <v>13.50904866341135</v>
       </c>
       <c r="R6" t="n">
-        <v>6.570715120919806</v>
+        <v>6.570715120919841</v>
       </c>
       <c r="S6" t="n">
-        <v>1.965737393126261</v>
+        <v>1.965737393126272</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4265673351317672</v>
+        <v>0.4265673351317695</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006962470105523953</v>
+        <v>0.006962470105523992</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0887239359895183</v>
+        <v>0.08872393598951879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7888364490704451</v>
+        <v>0.7888364490704495</v>
       </c>
       <c r="I7" t="n">
-        <v>2.668170729575697</v>
+        <v>2.668170729575711</v>
       </c>
       <c r="J7" t="n">
-        <v>6.272782274458944</v>
+        <v>6.272782274458979</v>
       </c>
       <c r="K7" t="n">
-        <v>10.30810819950949</v>
+        <v>10.30810819950955</v>
       </c>
       <c r="L7" t="n">
-        <v>13.19082953793257</v>
+        <v>13.19082953793264</v>
       </c>
       <c r="M7" t="n">
-        <v>13.90788025697513</v>
+        <v>13.9078802569752</v>
       </c>
       <c r="N7" t="n">
-        <v>13.57718195010512</v>
+        <v>13.57718195010519</v>
       </c>
       <c r="O7" t="n">
-        <v>12.54072506150028</v>
+        <v>12.54072506150035</v>
       </c>
       <c r="P7" t="n">
-        <v>10.7307567673141</v>
+        <v>10.73075676731416</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.429419767267756</v>
+        <v>7.429419767267797</v>
       </c>
       <c r="R7" t="n">
-        <v>3.989350794583249</v>
+        <v>3.989350794583272</v>
       </c>
       <c r="S7" t="n">
-        <v>1.546216229926423</v>
+        <v>1.546216229926431</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3790931810461236</v>
+        <v>0.3790931810461257</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004839487417610095</v>
+        <v>0.004839487417610122</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83902442925232</v>
+        <v>4.839024429252325</v>
       </c>
       <c r="H11" t="n">
-        <v>49.55765893608034</v>
+        <v>49.55765893608039</v>
       </c>
       <c r="I11" t="n">
-        <v>186.5564893087503</v>
+        <v>186.5564893087504</v>
       </c>
       <c r="J11" t="n">
-        <v>410.7061496522545</v>
+        <v>410.7061496522549</v>
       </c>
       <c r="K11" t="n">
-        <v>615.5420537425053</v>
+        <v>615.5420537425059</v>
       </c>
       <c r="L11" t="n">
-        <v>763.6343476192362</v>
+        <v>763.6343476192369</v>
       </c>
       <c r="M11" t="n">
-        <v>849.6903483129521</v>
+        <v>849.6903483129529</v>
       </c>
       <c r="N11" t="n">
-        <v>863.4392264725653</v>
+        <v>863.4392264725661</v>
       </c>
       <c r="O11" t="n">
-        <v>815.3211773041876</v>
+        <v>815.3211773041883</v>
       </c>
       <c r="P11" t="n">
-        <v>695.8577617070208</v>
+        <v>695.8577617070214</v>
       </c>
       <c r="Q11" t="n">
-        <v>522.5601993344219</v>
+        <v>522.5601993344224</v>
       </c>
       <c r="R11" t="n">
-        <v>303.9693683040214</v>
+        <v>303.9693683040217</v>
       </c>
       <c r="S11" t="n">
-        <v>110.2692691815874</v>
+        <v>110.2692691815875</v>
       </c>
       <c r="T11" t="n">
-        <v>21.18282943905204</v>
+        <v>21.18282943905206</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3871219543401855</v>
+        <v>0.3871219543401859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.589106325519298</v>
+        <v>2.5891063255193</v>
       </c>
       <c r="H12" t="n">
-        <v>25.00531635435743</v>
+        <v>25.00531635435746</v>
       </c>
       <c r="I12" t="n">
-        <v>89.14247655844952</v>
+        <v>89.1424765584496</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.6137691140844</v>
       </c>
       <c r="K12" t="n">
-        <v>418.0838929238772</v>
+        <v>418.0838929238776</v>
       </c>
       <c r="L12" t="n">
-        <v>562.1653887931266</v>
+        <v>562.165388793127</v>
       </c>
       <c r="M12" t="n">
-        <v>378.5655548953341</v>
+        <v>656.0204930932016</v>
       </c>
       <c r="N12" t="n">
-        <v>673.3834034954774</v>
+        <v>278.152322850189</v>
       </c>
       <c r="O12" t="n">
-        <v>616.0142580721287</v>
+        <v>616.0142580721293</v>
       </c>
       <c r="P12" t="n">
-        <v>494.405750879207</v>
+        <v>494.4057508792075</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.4971513066388</v>
+        <v>330.4971513066391</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.09151442357113</v>
+        <v>48.09151442357118</v>
       </c>
       <c r="T12" t="n">
-        <v>10.43591540856243</v>
+        <v>10.43591540856244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1703359424683749</v>
+        <v>0.1703359424683751</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.170619769596995</v>
+        <v>2.170619769596997</v>
       </c>
       <c r="H13" t="n">
-        <v>19.29878304241694</v>
+        <v>19.29878304241695</v>
       </c>
       <c r="I13" t="n">
-        <v>65.27645634388057</v>
+        <v>65.27645634388062</v>
       </c>
       <c r="J13" t="n">
-        <v>153.4628177105076</v>
+        <v>153.4628177105077</v>
       </c>
       <c r="K13" t="n">
-        <v>252.1865514131781</v>
+        <v>252.1865514131783</v>
       </c>
       <c r="L13" t="n">
-        <v>322.7119610180843</v>
+        <v>322.7119610180845</v>
       </c>
       <c r="M13" t="n">
-        <v>340.2545153378271</v>
+        <v>340.2545153378275</v>
       </c>
       <c r="N13" t="n">
-        <v>332.1640234693295</v>
+        <v>332.1640234693298</v>
       </c>
       <c r="O13" t="n">
-        <v>306.8072379790372</v>
+        <v>306.8072379790375</v>
       </c>
       <c r="P13" t="n">
-        <v>262.5265946792583</v>
+        <v>262.5265946792586</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.7598063432538</v>
+        <v>181.759806343254</v>
       </c>
       <c r="R13" t="n">
-        <v>97.59895800387942</v>
+        <v>97.5989580038795</v>
       </c>
       <c r="S13" t="n">
-        <v>37.82798271197671</v>
+        <v>37.82798271197674</v>
       </c>
       <c r="T13" t="n">
-        <v>9.274466288278068</v>
+        <v>9.274466288278077</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1183974419780181</v>
+        <v>0.1183974419780182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963292</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704916</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0.2279021592211631</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.838296680786872</v>
       </c>
       <c r="K5" t="n">
         <v>15.10494271950743</v>
       </c>
       <c r="L5" t="n">
-        <v>14.49464200356775</v>
+        <v>15.10494271950743</v>
       </c>
       <c r="M5" t="n">
-        <v>15.10494271950743</v>
+        <v>13.39237452050137</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.10494271950743</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>11.36891352178693</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>14.49464200356774</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.10494271950743</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>14.49464200356775</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>15.10494271950743</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>15.10494271950743</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.485325971360154</v>
+        <v>15.10494271950743</v>
       </c>
       <c r="M7" t="n">
-        <v>15.10494271950743</v>
+        <v>6.485325971360098</v>
       </c>
       <c r="N7" t="n">
         <v>15.10494271950743</v>
@@ -35109,7 +35109,7 @@
         <v>15.10494271950743</v>
       </c>
       <c r="P7" t="n">
-        <v>8.00931603220759</v>
+        <v>8.009316032207648</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>177.8598224851394</v>
+        <v>177.8598224851391</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.6602451255682</v>
+        <v>229.6602451255686</v>
       </c>
       <c r="K11" t="n">
-        <v>395.4522026975248</v>
+        <v>395.4522026975254</v>
       </c>
       <c r="L11" t="n">
-        <v>527.867932649249</v>
+        <v>527.8679326492497</v>
       </c>
       <c r="M11" t="n">
-        <v>619.3441150856794</v>
+        <v>619.3441150856802</v>
       </c>
       <c r="N11" t="n">
-        <v>634.0261628759745</v>
+        <v>634.0261628759752</v>
       </c>
       <c r="O11" t="n">
-        <v>585.2229658825008</v>
+        <v>585.2229658825015</v>
       </c>
       <c r="P11" t="n">
-        <v>464.6247659517513</v>
+        <v>464.6247659517518</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.2545094599724</v>
+        <v>300.2545094599728</v>
       </c>
       <c r="R11" t="n">
-        <v>88.38383048988925</v>
+        <v>88.38383048988953</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.7761424474178</v>
       </c>
       <c r="K12" t="n">
-        <v>280.2424539495182</v>
+        <v>280.2424539495186</v>
       </c>
       <c r="L12" t="n">
-        <v>423.6110090132524</v>
+        <v>423.6110090132528</v>
       </c>
       <c r="M12" t="n">
-        <v>236.4315209733157</v>
+        <v>513.8864591711833</v>
       </c>
       <c r="N12" t="n">
-        <v>542.0416914121441</v>
+        <v>146.8106107668557</v>
       </c>
       <c r="O12" t="n">
-        <v>473.4180136276842</v>
+        <v>473.4180136276849</v>
       </c>
       <c r="P12" t="n">
-        <v>360.4313434648768</v>
+        <v>360.4313434648772</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5153772206173</v>
+        <v>190.5153772206176</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.10363759383478</v>
+        <v>60.10363759383492</v>
       </c>
       <c r="K13" t="n">
-        <v>229.9170595872953</v>
+        <v>229.9170595872955</v>
       </c>
       <c r="L13" t="n">
-        <v>350.3019862784004</v>
+        <v>350.3019862784007</v>
       </c>
       <c r="M13" t="n">
-        <v>379.8383922996677</v>
+        <v>379.838392299668</v>
       </c>
       <c r="N13" t="n">
-        <v>376.2961958485581</v>
+        <v>376.2961958485585</v>
       </c>
       <c r="O13" t="n">
-        <v>331.3923658930769</v>
+        <v>331.3923658930772</v>
       </c>
       <c r="P13" t="n">
-        <v>259.8051539441518</v>
+        <v>259.805153944152</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.59776309155946</v>
+        <v>95.59776309155963</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916455</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561613</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
